--- a/biology/Histoire de la zoologie et de la botanique/Wagner_Free_Institute_of_Science/Wagner_Free_Institute_of_Science.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wagner_Free_Institute_of_Science/Wagner_Free_Institute_of_Science.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Wagner Free Institute of Science est un musée d'histoire naturelle situé dans la ville de Philadelphie, en Pennsylvanie. Fondée en 1855, l'institution tire son nom du philanthrope William Wagner (en) (1796–1885), qui désirait offrir des cours gratuits à tous ceux qui cherchaient à apprendre des choses sur le monde vivant.
